--- a/src/test/resources/InputData.xlsx
+++ b/src/test/resources/InputData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Automation_PFE\TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2219F38-F58B-4F0F-87F9-13081D06318D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF562B4E-6C96-41C9-ADA9-FE2F1924BD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,6 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -437,8 +438,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>13</v>
+      <c r="C2" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
